--- a/hsr/himeko.xlsx
+++ b/hsr/himeko.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>142</v>
+        <v>335</v>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="E2" t="n">
         <v>96</v>
@@ -479,16 +479,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>277</v>
+        <v>463</v>
       </c>
       <c r="C3" t="n">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="D3" t="n">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="E3" t="n">
         <v>96</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B4" t="n">
-        <v>406</v>
+        <v>591</v>
       </c>
       <c r="C4" t="n">
-        <v>293</v>
+        <v>427</v>
       </c>
       <c r="D4" t="n">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="E4" t="n">
         <v>96</v>
@@ -513,16 +513,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>534</v>
+        <v>719</v>
       </c>
       <c r="C5" t="n">
-        <v>386</v>
+        <v>519</v>
       </c>
       <c r="D5" t="n">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="E5" t="n">
         <v>96</v>
@@ -530,16 +530,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>662</v>
+        <v>848</v>
       </c>
       <c r="C6" t="n">
-        <v>478</v>
+        <v>612</v>
       </c>
       <c r="D6" t="n">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="E6" t="n">
         <v>96</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B7" t="n">
-        <v>791</v>
+        <v>976</v>
       </c>
       <c r="C7" t="n">
-        <v>571</v>
+        <v>705</v>
       </c>
       <c r="D7" t="n">
-        <v>329</v>
+        <v>406</v>
       </c>
       <c r="E7" t="n">
         <v>96</v>
@@ -564,35 +564,18 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B8" t="n">
-        <v>919</v>
+        <v>1047</v>
       </c>
       <c r="C8" t="n">
-        <v>664</v>
+        <v>756</v>
       </c>
       <c r="D8" t="n">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>80</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1047</v>
-      </c>
-      <c r="C9" t="n">
-        <v>756</v>
-      </c>
-      <c r="D9" t="n">
-        <v>436</v>
-      </c>
-      <c r="E9" t="n">
         <v>96</v>
       </c>
     </row>

--- a/hsr/himeko.xlsx
+++ b/hsr/himeko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>335</v>
+        <v>142</v>
       </c>
       <c r="C2" t="n">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
         <v>96</v>
@@ -479,16 +479,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>463</v>
+        <v>277</v>
       </c>
       <c r="C3" t="n">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="E3" t="n">
         <v>96</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>591</v>
+        <v>406</v>
       </c>
       <c r="C4" t="n">
-        <v>427</v>
+        <v>293</v>
       </c>
       <c r="D4" t="n">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="E4" t="n">
         <v>96</v>
@@ -513,16 +513,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>719</v>
+        <v>534</v>
       </c>
       <c r="C5" t="n">
-        <v>519</v>
+        <v>386</v>
       </c>
       <c r="D5" t="n">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="E5" t="n">
         <v>96</v>
@@ -530,16 +530,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>848</v>
+        <v>662</v>
       </c>
       <c r="C6" t="n">
-        <v>612</v>
+        <v>478</v>
       </c>
       <c r="D6" t="n">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="E6" t="n">
         <v>96</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>976</v>
+        <v>791</v>
       </c>
       <c r="C7" t="n">
-        <v>705</v>
+        <v>571</v>
       </c>
       <c r="D7" t="n">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="E7" t="n">
         <v>96</v>
@@ -564,18 +564,35 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>70</v>
+      </c>
+      <c r="B8" t="n">
+        <v>919</v>
+      </c>
+      <c r="C8" t="n">
+        <v>664</v>
+      </c>
+      <c r="D8" t="n">
+        <v>383</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>80</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>1047</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>756</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>436</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>96</v>
       </c>
     </row>
